--- a/data/tehilim-data/84.xlsx
+++ b/data/tehilim-data/84.xlsx
@@ -49,13 +49,13 @@
     <t>קֹ֥רַח</t>
   </si>
   <si>
-    <t>Кораха</t>
+    <t>Кореха</t>
   </si>
   <si>
     <t>מִזְמֽוֹר׃</t>
   </si>
   <si>
-    <t>Псалом</t>
+    <t>песнопение</t>
   </si>
   <si>
     <t>ב</t>
